--- a/Data/EC/NIT-9007425769.xlsx
+++ b/Data/EC/NIT-9007425769.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F948D4C3-E6BA-4A9C-92DB-88B7D1A0A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A7906F-74CB-4671-A8BA-417D3F26E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA39523D-558D-44CD-82AC-324F36B8981F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC75E2E2-DFAD-480F-A583-E410C60C9DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="84">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9186313</t>
+  </si>
+  <si>
+    <t>CARLOS OROZCO DE HORTA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1048611923</t>
+  </si>
+  <si>
+    <t>ALFREDO MERCADO DE HORTA</t>
+  </si>
+  <si>
+    <t>1048601471</t>
+  </si>
+  <si>
+    <t>NESTOR CARLOS DE HORTA ALMEIDA</t>
+  </si>
+  <si>
+    <t>1048609078</t>
+  </si>
+  <si>
+    <t>WILMER DARIO ALVAREZ PENARANDA</t>
+  </si>
+  <si>
+    <t>1049939698</t>
+  </si>
+  <si>
+    <t>KELLY JOHANA GUERRERO MALDONADO</t>
+  </si>
+  <si>
+    <t>78699770</t>
+  </si>
+  <si>
+    <t>JHNIS SOTO ANAYA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>8834399</t>
   </si>
   <si>
@@ -86,48 +128,12 @@
     <t>YEISON JOSE HERNANDEZ CRESPO</t>
   </si>
   <si>
-    <t>9186313</t>
-  </si>
-  <si>
-    <t>CARLOS OROZCO DE HORTA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>1002388557</t>
   </si>
   <si>
     <t>ESTIBEN DE JESUS PUELLO PARDO</t>
   </si>
   <si>
-    <t>1048611923</t>
-  </si>
-  <si>
-    <t>ALFREDO MERCADO DE HORTA</t>
-  </si>
-  <si>
-    <t>1048601471</t>
-  </si>
-  <si>
-    <t>NESTOR CARLOS DE HORTA ALMEIDA</t>
-  </si>
-  <si>
-    <t>1048609078</t>
-  </si>
-  <si>
-    <t>WILMER DARIO ALVAREZ PENARANDA</t>
-  </si>
-  <si>
-    <t>1049939698</t>
-  </si>
-  <si>
-    <t>KELLY JOHANA GUERRERO MALDONADO</t>
-  </si>
-  <si>
     <t>1001996754</t>
   </si>
   <si>
@@ -140,18 +146,6 @@
     <t>LAURA MARCELA MENDOZA MORELO</t>
   </si>
   <si>
-    <t>78699770</t>
-  </si>
-  <si>
-    <t>JHNIS SOTO ANAYA</t>
-  </si>
-  <si>
-    <t>1067952689</t>
-  </si>
-  <si>
-    <t>HERNAN DARIO CORREA VARGAS</t>
-  </si>
-  <si>
     <t>8817513</t>
   </si>
   <si>
@@ -204,6 +198,63 @@
   </si>
   <si>
     <t>JAIME LUIS ARRIETA YEPEZ</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1045714943</t>
+  </si>
+  <si>
+    <t>JARLIN JOSETH MACHACON CUJIA</t>
+  </si>
+  <si>
+    <t>1042420319</t>
+  </si>
+  <si>
+    <t>MANUEL EUGENIO ARIZA ANAYA</t>
+  </si>
+  <si>
+    <t>1140418465</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ANTONIO SILVERA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>9272979</t>
+  </si>
+  <si>
+    <t>ROIDER JAVIER ORTEGA JIMENEZ</t>
+  </si>
+  <si>
+    <t>1193225207</t>
+  </si>
+  <si>
+    <t>KELVIS JOAQUIN OLIVO CARREÃ?O</t>
+  </si>
+  <si>
+    <t>1002158983</t>
+  </si>
+  <si>
+    <t>BLADIMIR RAMIREZ</t>
+  </si>
+  <si>
+    <t>1045166658</t>
+  </si>
+  <si>
+    <t>FERNEY ALBERTO CASTRO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1007171624</t>
+  </si>
+  <si>
+    <t>FREY DAVID FIGUEROA MENDOZA</t>
+  </si>
+  <si>
+    <t>1045167445</t>
+  </si>
+  <si>
+    <t>CARLOS RAFAEL SUAREZ CASTRO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -302,9 +353,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -322,156 +523,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -517,23 +568,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,10 +612,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F55D35-B2EF-8CA9-53B4-B1F8A594C16F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B688CA-3CC1-A824-23E0-53E666350957}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,8 +1019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CFCB42-0E59-4C91-B613-4843EB91D28A}">
-  <dimension ref="B2:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF06D3E1-8726-4394-9B65-8E5A4ACD80C0}">
+  <dimension ref="B2:J83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -980,7 +1031,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -993,7 +1044,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1038,7 +1089,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1070,12 +1121,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1675934</v>
+        <v>3143088</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1086,17 +1137,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1123,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1146,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1169,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>45552</v>
+        <v>15184</v>
       </c>
       <c r="G17" s="18">
         <v>1423500</v>
@@ -1192,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1215,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>15184</v>
       </c>
       <c r="G19" s="18">
         <v>1423500</v>
@@ -1229,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1252,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G21" s="18">
         <v>1423500</v>
@@ -1275,16 +1326,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
         <v>1423500</v>
@@ -1298,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1321,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1344,16 +1395,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F25" s="18">
-        <v>15184</v>
+        <v>56940</v>
       </c>
       <c r="G25" s="18">
         <v>1423500</v>
@@ -1367,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1390,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1413,16 +1464,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F28" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G28" s="18">
         <v>1423500</v>
@@ -1436,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1459,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>56940</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1482,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>15184</v>
+        <v>45552</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1505,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>56940</v>
@@ -1528,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>56940</v>
@@ -1551,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>56940</v>
@@ -1574,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1603,10 +1654,10 @@
         <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>36062</v>
+        <v>56940</v>
       </c>
       <c r="G36" s="18">
         <v>1423500</v>
@@ -1626,10 +1677,10 @@
         <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>36062</v>
       </c>
       <c r="G37" s="18">
         <v>1423500</v>
@@ -1643,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1672,7 +1723,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1689,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>56940</v>
@@ -1712,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1735,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
         <v>56940</v>
@@ -1758,13 +1809,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
         <v>56940</v>
@@ -1781,16 +1832,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G44" s="18">
         <v>1423500</v>
@@ -1804,16 +1855,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
-        <v>56940</v>
+        <v>18980</v>
       </c>
       <c r="G45" s="18">
         <v>1423500</v>
@@ -1827,16 +1878,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>56940</v>
+        <v>18980</v>
       </c>
       <c r="G46" s="18">
         <v>1423500</v>
@@ -1850,16 +1901,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>45552</v>
+        <v>1898</v>
       </c>
       <c r="G47" s="18">
         <v>1423500</v>
@@ -1873,16 +1924,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F48" s="18">
-        <v>18980</v>
+        <v>56940</v>
       </c>
       <c r="G48" s="18">
         <v>1423500</v>
@@ -1896,16 +1947,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F49" s="18">
-        <v>18980</v>
+        <v>56940</v>
       </c>
       <c r="G49" s="18">
         <v>1423500</v>
@@ -1915,56 +1966,677 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="24">
-        <v>1898</v>
-      </c>
-      <c r="G50" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
+      <c r="D56" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="18">
+        <v>47450</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="18">
+        <v>47450</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="18">
+        <v>47450</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="18">
+        <v>47450</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
+      <c r="D68" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="E68" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="18">
+        <v>47450</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F76" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="24">
+        <v>34164</v>
+      </c>
+      <c r="G77" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="H82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H82:J82"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
